--- a/amigo_webservice/AmigoProcessManagement/Templates/Excel/MonthlyQuotation_Template.xlsx
+++ b/amigo_webservice/AmigoProcessManagement/Templates/Excel/MonthlyQuotation_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92606\Desktop\Amigo_事務処理化\1_契約\01_外部設計\帳票テンプレートファイル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92606\Desktop\Amigo_事務処理化\4_ソース\phase2\jimugo\amigo_webservice\AmigoProcessManagement\Templates\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -236,18 +236,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="11">
+  <numFmts count="7">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0\ \-"/>
-    <numFmt numFmtId="178" formatCode="0.0&quot;人月&quot;"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00_);&quot;¥&quot;&quot;¥&quot;\(&quot;$&quot;#,##0.00&quot;¥&quot;&quot;¥&quot;\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_)"/>
-    <numFmt numFmtId="181" formatCode="0&quot; 権限&quot;"/>
-    <numFmt numFmtId="182" formatCode="0&quot; 口&quot;"/>
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="184" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00_);&quot;¥&quot;&quot;¥&quot;\(&quot;$&quot;#,##0.00&quot;¥&quot;&quot;¥&quot;\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -464,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -636,17 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -686,35 +671,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -727,36 +697,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -824,34 +766,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -954,16 +868,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
@@ -973,7 +887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1017,124 +931,46 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="16" fillId="0" borderId="27" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="17" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="16" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="17" fillId="0" borderId="29" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="34" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="35" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="36" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="29" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="30" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="37" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="31" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -1161,17 +997,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1194,16 +1024,43 @@
     <xf numFmtId="31" fontId="7" fillId="0" borderId="4" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -1219,6 +1076,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2005,38 +1865,38 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="4" style="56" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" style="56" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="56" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="56" customWidth="1"/>
-    <col min="7" max="7" width="9" style="56"/>
-    <col min="8" max="8" width="9.44140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="56" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="56"/>
+    <col min="1" max="1" width="4.44140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="4" style="30" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9" style="30"/>
+    <col min="8" max="8" width="9.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="30" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="55" customFormat="1" ht="21">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:10" s="29" customFormat="1" ht="21">
+      <c r="A1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="J2" s="1"/>
@@ -2046,32 +1906,32 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A5" s="57"/>
+      <c r="A5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A6" s="58"/>
+      <c r="A6" s="32"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
-      <c r="I7" s="78"/>
-      <c r="J7" s="79"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="67" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="39" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="4"/>
@@ -2080,15 +1940,15 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="68" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="69"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="6" t="s">
         <v>3</v>
       </c>
@@ -2096,15 +1956,15 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="68" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="6" t="s">
         <v>5</v>
       </c>
@@ -2112,15 +1972,15 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="68" t="s">
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="6" t="s">
         <v>5</v>
       </c>
@@ -2128,40 +1988,40 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="68" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="71"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="68" t="s">
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="73"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="68" t="s">
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="40" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -2172,7 +2032,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B18" s="72"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2184,64 +2044,64 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B19" s="59"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B23" s="59"/>
-      <c r="E23" s="45" t="s">
+      <c r="B23" s="33"/>
+      <c r="E23" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="2:10" ht="16.5" customHeight="1">
-      <c r="F24" s="60"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B25" s="62"/>
+      <c r="B25" s="36"/>
     </row>
     <row r="26" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B26" s="62"/>
+      <c r="B26" s="36"/>
     </row>
     <row r="27" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
       <c r="B27" s="8" t="s">
@@ -2265,182 +2125,182 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B28" s="40"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="28"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="29"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="28"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="28"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="17"/>
     </row>
     <row r="32" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="29"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="29"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="29"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="29"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="29"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="29"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="17"/>
     </row>
     <row r="39" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="29"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="54"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="28"/>
     </row>
     <row r="41" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B41" s="47"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="53"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
     </row>
     <row r="42" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B42" s="41"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="30"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="19"/>
     </row>
     <row r="43" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="24"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/amigo_webservice/AmigoProcessManagement/Templates/Excel/MonthlyQuotation_Template.xlsx
+++ b/amigo_webservice/AmigoProcessManagement/Templates/Excel/MonthlyQuotation_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92606\Desktop\Amigo_事務処理化\4_ソース\phase2\jimugo\amigo_webservice\AmigoProcessManagement\Templates\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\jimugo\amigo_webservice\AmigoProcessManagement\Templates\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="4056" windowWidth="25092" windowHeight="8700" tabRatio="796"/>
+    <workbookView xWindow="-15" yWindow="4050" windowWidth="25095" windowHeight="8700" tabRatio="796"/>
   </bookViews>
   <sheets>
     <sheet name=" MonthlyQuotation_Template" sheetId="16" r:id="rId1"/>
@@ -237,26 +237,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
-    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;#,##0"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0\ \-"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00_);&quot;¥&quot;&quot;¥&quot;\(&quot;$&quot;#,##0.00&quot;¥&quot;&quot;¥&quot;\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_)"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0\ \-"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00_);&quot;¥&quot;&quot;¥&quot;\(&quot;$&quot;#,##0.00&quot;¥&quot;&quot;¥&quot;\)"/>
+    <numFmt numFmtId="169" formatCode="0.00_)"/>
+    <numFmt numFmtId="170" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -264,7 +264,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -272,29 +272,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -305,7 +305,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -850,10 +850,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
@@ -877,8 +877,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -892,7 +891,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -934,7 +933,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="16" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -949,7 +948,7 @@
     <xf numFmtId="38" fontId="17" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1009,10 +1008,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="8" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,7 +1020,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="4" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1082,26 +1081,25 @@
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="18">
     <cellStyle name="Calc Currency (0)" xfId="9"/>
+    <cellStyle name="Comma [0]" xfId="7" builtinId="6"/>
     <cellStyle name="Grey" xfId="10"/>
     <cellStyle name="Header1" xfId="11"/>
     <cellStyle name="Header2" xfId="12"/>
     <cellStyle name="Input [yellow]" xfId="13"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="14"/>
-    <cellStyle name="Normal_#18-Internet" xfId="15"/>
-    <cellStyle name="Percent [2]" xfId="16"/>
-    <cellStyle name="桁区切り" xfId="7" builtinId="6"/>
+    <cellStyle name="Percent [2]" xfId="15"/>
     <cellStyle name="桁区切り 2" xfId="4"/>
-    <cellStyle name="通貨 2" xfId="2"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="17"/>
+    <cellStyle name="標準 2 2" xfId="16"/>
     <cellStyle name="標準 3" xfId="3"/>
     <cellStyle name="標準 3 2" xfId="6"/>
     <cellStyle name="標準 3 3" xfId="5"/>
-    <cellStyle name="標準 3 4" xfId="18"/>
+    <cellStyle name="標準 3 4" xfId="17"/>
     <cellStyle name="標準 4" xfId="8"/>
+    <cellStyle name="通貨 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1576,7 +1574,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1865,22 +1863,22 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="30" customWidth="1"/>
     <col min="2" max="2" width="4" style="30" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="30" customWidth="1"/>
     <col min="7" max="7" width="9" style="30"/>
-    <col min="8" max="8" width="9.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="30" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="30" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="30" customWidth="1"/>
     <col min="11" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
@@ -2319,7 +2317,7 @@
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="400" verticalDpi="400" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="400" verticalDpi="400" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
